--- a/Planilla pruebas.xlsx
+++ b/Planilla pruebas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -146,13 +146,25 @@
   </si>
   <si>
     <t>Verificar salidas esperadas</t>
+  </si>
+  <si>
+    <t>Letras o caracteres especiales</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>a+a+a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +195,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -366,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,6 +428,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,22 +983,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1016,13 +1047,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1036,13 +1067,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14">
         <v>4</v>
       </c>
       <c r="D5" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1059,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
         <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1073,10 +1104,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="14">
         <v>2</v>
@@ -1085,24 +1116,24 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="14">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1113,16 +1144,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1139,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1152,17 +1183,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
       </c>
       <c r="C11" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1173,42 +1204,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="14">
         <v>4</v>
       </c>
       <c r="D13" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,13 +1247,13 @@
         <v>33</v>
       </c>
       <c r="B14" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1233,68 +1264,153 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17" s="14">
         <v>4</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
